--- a/Methane/Methane_worksheet_2022-04-23.xlsx
+++ b/Methane/Methane_worksheet_2022-04-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29EAE3-E999-954D-A49C-83B343280E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0535E930-C80B-D14C-8F3E-F1A3CDA2C326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="700" windowWidth="35400" windowHeight="17540" xr2:uid="{E7E559FF-5818-C841-AE4A-F705F0A80E92}"/>
+    <workbookView xWindow="440" yWindow="9440" windowWidth="35400" windowHeight="17540" xr2:uid="{E7E559FF-5818-C841-AE4A-F705F0A80E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="102">
   <si>
     <t>Location</t>
   </si>
@@ -415,6 +415,21 @@
   <si>
     <t>equilibrium of aqueous CH4 with atmosphere</t>
   </si>
+  <si>
+    <t>W07</t>
+  </si>
+  <si>
+    <t>W06</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W04</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -712,6 +727,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B10BDFC-C098-7F4B-8D19-0A28C207B653}">
   <dimension ref="A1:BE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I193" sqref="I193:I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10924,14 +10941,14 @@
         <v>71.75</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G192" si="24">F142/1000</f>
+        <f t="shared" ref="G142:G197" si="24">F142/1000</f>
         <v>7.1749999999999994E-2</v>
       </c>
       <c r="H142">
         <v>15</v>
       </c>
       <c r="I142" s="4">
-        <f t="shared" ref="I142:I192" si="25">(G142-H142/1000)</f>
+        <f t="shared" ref="I142:I197" si="25">(G142-H142/1000)</f>
         <v>5.6749999999999995E-2</v>
       </c>
       <c r="J142">
@@ -13626,7 +13643,7 @@
         <v>88.719706524729787</v>
       </c>
       <c r="Q178" s="33">
-        <f t="shared" ref="Q178:Q209" si="36">((L178*H178/1000)+(I178*O178*P178))/I178</f>
+        <f t="shared" ref="Q178:Q192" si="36">((L178*H178/1000)+(I178*O178*P178))/I178</f>
         <v>1.1611837611901958</v>
       </c>
       <c r="R178" s="3">
@@ -14665,56 +14682,171 @@
       </c>
       <c r="AA192" s="31"/>
     </row>
-    <row r="193" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>179</v>
+      </c>
+      <c r="B193" t="s">
+        <v>97</v>
+      </c>
       <c r="D193" s="1"/>
+      <c r="E193" s="52">
+        <v>44835</v>
+      </c>
+      <c r="F193">
+        <v>71</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="24"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H193">
+        <v>15</v>
+      </c>
+      <c r="I193" s="53">
+        <f t="shared" si="25"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
       <c r="Z193" s="31"/>
     </row>
-    <row r="194" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>98</v>
+      </c>
       <c r="D194" s="1"/>
+      <c r="E194" s="52">
+        <v>44835</v>
+      </c>
+      <c r="F194">
+        <v>71</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="24"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H194">
+        <v>15</v>
+      </c>
+      <c r="I194" s="53">
+        <f t="shared" si="25"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
       <c r="Z194" s="31"/>
     </row>
-    <row r="195" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>212</v>
+      </c>
+      <c r="B195" t="s">
+        <v>99</v>
+      </c>
       <c r="D195" s="1"/>
+      <c r="E195" s="52">
+        <v>44835</v>
+      </c>
+      <c r="F195">
+        <v>71</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="24"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H195">
+        <v>15</v>
+      </c>
+      <c r="I195" s="53">
+        <f t="shared" si="25"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
       <c r="Z195" s="31"/>
     </row>
-    <row r="196" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>214</v>
+      </c>
+      <c r="B196" t="s">
+        <v>100</v>
+      </c>
       <c r="D196" s="1"/>
+      <c r="E196" s="52">
+        <v>44835</v>
+      </c>
+      <c r="F196">
+        <v>71</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="24"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H196">
+        <v>15</v>
+      </c>
+      <c r="I196" s="53">
+        <f t="shared" si="25"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
       <c r="Z196" s="31"/>
     </row>
-    <row r="197" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>239</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
       <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="4:26" x14ac:dyDescent="0.2">
+      <c r="E197" s="52">
+        <v>44835</v>
+      </c>
+      <c r="F197">
+        <v>71</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="24"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H197">
+        <v>15</v>
+      </c>
+      <c r="I197" s="53">
+        <f t="shared" si="25"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">

--- a/Methane/Methane_worksheet_2022-04-23.xlsx
+++ b/Methane/Methane_worksheet_2022-04-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0535E930-C80B-D14C-8F3E-F1A3CDA2C326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0958CB8B-4A6C-1541-9935-58B66CE8341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="9440" windowWidth="35400" windowHeight="17540" xr2:uid="{E7E559FF-5818-C841-AE4A-F705F0A80E92}"/>
+    <workbookView xWindow="4900" yWindow="2660" windowWidth="35400" windowHeight="17540" xr2:uid="{E7E559FF-5818-C841-AE4A-F705F0A80E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="97">
   <si>
     <t>Location</t>
   </si>
@@ -415,21 +415,6 @@
   <si>
     <t>equilibrium of aqueous CH4 with atmosphere</t>
   </si>
-  <si>
-    <t>W07</t>
-  </si>
-  <si>
-    <t>W06</t>
-  </si>
-  <si>
-    <t>W12</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>W04</t>
-  </si>
 </sst>
 </file>
 
@@ -642,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -718,6 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,8 +713,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B10BDFC-C098-7F4B-8D19-0A28C207B653}">
   <dimension ref="A1:BE780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="I193" sqref="I193:I197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I193" sqref="A193:I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,13 +1338,13 @@
         <v>35</v>
       </c>
       <c r="O13" s="17"/>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
@@ -1384,14 +1368,14 @@
         <v>74</v>
       </c>
       <c r="O14" s="17"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
       <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
@@ -1673,11 +1657,11 @@
         <v>2.0365175140760038E-3</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" ref="P18:P81" si="5">L18*$B$2*($B$5+$B$3)</f>
+        <f>L18*$B$2*($B$5+$B$3)</f>
         <v>583.62628181546143</v>
       </c>
       <c r="Q18" s="33">
-        <f t="shared" ref="Q18:Q49" si="6">((L18*H18/1000)+(I18*O18*P18))/I18</f>
+        <f t="shared" ref="Q18:Q49" si="5">((L18*H18/1000)+(I18*O18*P18))/I18</f>
         <v>7.7059670882018647</v>
       </c>
       <c r="R18" s="3">
@@ -1685,7 +1669,7 @@
         <v>1.1845999746421498</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" ref="S18:S81" si="7">O18*R18</f>
+        <f t="shared" ref="S18:S81" si="6">O18*R18</f>
         <v>2.4124585955327283E-3</v>
       </c>
       <c r="T18" s="33">
@@ -1734,7 +1718,7 @@
         <v>0.37514963404909313</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:L81" si="8">K19*($B$11+$B$6)/$B$11</f>
+        <f t="shared" ref="L19:L81" si="7">K19*($B$11+$B$6)/$B$11</f>
         <v>0.67074441145234542</v>
       </c>
       <c r="M19">
@@ -1748,11 +1732,11 @@
         <v>2.0614974303226059E-3</v>
       </c>
       <c r="P19" s="3">
+        <f t="shared" ref="P18:P81" si="8">L19*$B$2*($B$5+$B$3)</f>
+        <v>16.189874724844724</v>
+      </c>
+      <c r="Q19" s="33">
         <f t="shared" si="5"/>
-        <v>16.189874724844724</v>
-      </c>
-      <c r="Q19" s="33">
-        <f t="shared" si="6"/>
         <v>0.21208171146196489</v>
       </c>
       <c r="R19" s="3">
@@ -1760,7 +1744,7 @@
         <v>1.1818350349057236</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4363498875233764E-3</v>
       </c>
       <c r="T19" s="33">
@@ -1809,7 +1793,7 @@
         <v>0.10633128225231261</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.19011377557139605</v>
       </c>
       <c r="M20">
@@ -1823,11 +1807,11 @@
         <v>2.1178799437077682E-3</v>
       </c>
       <c r="P20" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5888093250059452</v>
+      </c>
+      <c r="Q20" s="33">
         <f t="shared" si="5"/>
-        <v>4.5888093250059452</v>
-      </c>
-      <c r="Q20" s="33">
-        <f t="shared" si="6"/>
         <v>6.0451630913472963E-2</v>
       </c>
       <c r="R20" s="3">
@@ -1835,7 +1819,7 @@
         <v>1.1642184080830844</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4656748165745503E-3</v>
       </c>
       <c r="T20" s="33">
@@ -1884,7 +1868,7 @@
         <v>0.75996459971926744</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3587698398144008</v>
       </c>
       <c r="M21">
@@ -1898,11 +1882,11 @@
         <v>2.0614974303226059E-3</v>
       </c>
       <c r="P21" s="3">
+        <f>L21*$B$2*($B$5+$B$3)</f>
+        <v>32.7968643657576</v>
+      </c>
+      <c r="Q21" s="33">
         <f t="shared" si="5"/>
-        <v>32.7968643657576</v>
-      </c>
-      <c r="Q21" s="33">
-        <f t="shared" si="6"/>
         <v>0.43610726338657735</v>
       </c>
       <c r="R21" s="3">
@@ -1910,7 +1894,7 @@
         <v>1.1818350349057236</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4363498875233764E-3</v>
       </c>
       <c r="T21" s="33">
@@ -1959,7 +1943,7 @@
         <v>1.5178782118570679</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7138726403107061</v>
       </c>
       <c r="M22">
@@ -1973,11 +1957,11 @@
         <v>1.999880935237024E-3</v>
       </c>
       <c r="P22" s="3">
+        <f t="shared" si="8"/>
+        <v>65.505216764576119</v>
+      </c>
+      <c r="Q22" s="33">
         <f t="shared" si="5"/>
-        <v>65.505216764576119</v>
-      </c>
-      <c r="Q22" s="33">
-        <f t="shared" si="6"/>
         <v>0.85405928789003371</v>
       </c>
       <c r="R22" s="3">
@@ -1985,7 +1969,7 @@
         <v>1.2187935913129297</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4374420672557931E-3</v>
       </c>
       <c r="T22" s="33">
@@ -2034,7 +2018,7 @@
         <v>0.14054950422237122</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.25129384633017271</v>
       </c>
       <c r="M23">
@@ -2048,11 +2032,11 @@
         <v>2.0416382657432999E-3</v>
       </c>
       <c r="P23" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0655233524803318</v>
+      </c>
+      <c r="Q23" s="33">
         <f t="shared" si="5"/>
-        <v>6.0655233524803318</v>
-      </c>
-      <c r="Q23" s="33">
-        <f t="shared" si="6"/>
         <v>7.9181543528255918E-2</v>
       </c>
       <c r="R23" s="3">
@@ -2060,7 +2044,7 @@
         <v>1.1687256411984184</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3861149912260651E-3</v>
       </c>
       <c r="T23" s="33">
@@ -2109,7 +2093,7 @@
         <v>7.9613694538090848E-2</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.14234437632294325</v>
       </c>
       <c r="M24">
@@ -2123,11 +2107,11 @@
         <v>2.1178799437077682E-3</v>
       </c>
       <c r="P24" s="3">
+        <f t="shared" si="8"/>
+        <v>3.435791012353945</v>
+      </c>
+      <c r="Q24" s="33">
         <f t="shared" si="5"/>
-        <v>3.435791012353945</v>
-      </c>
-      <c r="Q24" s="33">
-        <f t="shared" si="6"/>
         <v>4.5727261790731367E-2</v>
       </c>
       <c r="R24" s="3">
@@ -2135,7 +2119,7 @@
         <v>1.1642184080830844</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4656748165745503E-3</v>
       </c>
       <c r="T24" s="33">
@@ -2184,7 +2168,7 @@
         <v>1.5638675021848267</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7960986554105021</v>
       </c>
       <c r="M25">
@@ -2198,11 +2182,11 @@
         <v>2.0280213654239017E-3</v>
       </c>
       <c r="P25" s="3">
+        <f t="shared" si="8"/>
+        <v>67.489920417501693</v>
+      </c>
+      <c r="Q25" s="33">
         <f t="shared" si="5"/>
-        <v>67.489920417501693</v>
-      </c>
-      <c r="Q25" s="33">
-        <f t="shared" si="6"/>
         <v>0.88582599754240821</v>
       </c>
       <c r="R25" s="3">
@@ -2210,7 +2194,7 @@
         <v>1.1833458783244466</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3998507239282904E-3</v>
       </c>
       <c r="T25" s="33">
@@ -2259,7 +2243,7 @@
         <v>0.82505713372163358</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4751512765710346</v>
       </c>
       <c r="M26">
@@ -2273,11 +2257,11 @@
         <v>2.0280213654239017E-3</v>
       </c>
       <c r="P26" s="3">
+        <f t="shared" si="8"/>
+        <v>35.605983382206098</v>
+      </c>
+      <c r="Q26" s="33">
         <f t="shared" si="5"/>
-        <v>35.605983382206098</v>
-      </c>
-      <c r="Q26" s="33">
-        <f t="shared" si="6"/>
         <v>0.46565331432063561</v>
       </c>
       <c r="R26" s="3">
@@ -2285,7 +2269,7 @@
         <v>1.1833458783244466</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3998507239282904E-3</v>
       </c>
       <c r="T26" s="33">
@@ -2334,7 +2318,7 @@
         <v>1.6216320723437589</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8993781447061799</v>
       </c>
       <c r="M27">
@@ -2348,11 +2332,11 @@
         <v>1.9988624233304225E-3</v>
       </c>
       <c r="P27" s="3">
+        <f t="shared" si="8"/>
+        <v>69.982795445297228</v>
+      </c>
+      <c r="Q27" s="33">
         <f t="shared" si="5"/>
-        <v>69.982795445297228</v>
-      </c>
-      <c r="Q27" s="33">
-        <f t="shared" si="6"/>
         <v>0.92434976383607359</v>
       </c>
       <c r="R27" s="3">
@@ -2360,7 +2344,7 @@
         <v>1.2052252621625512</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.409079488185281E-3</v>
       </c>
       <c r="T27" s="33">
@@ -2409,7 +2393,7 @@
         <v>0.36857973543084183</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.65899783786666033</v>
       </c>
       <c r="M28">
@@ -2423,11 +2407,11 @@
         <v>2.0280213654239017E-3</v>
       </c>
       <c r="P28" s="3">
+        <f t="shared" si="8"/>
+        <v>15.906345631569643</v>
+      </c>
+      <c r="Q28" s="33">
         <f t="shared" si="5"/>
-        <v>15.906345631569643</v>
-      </c>
-      <c r="Q28" s="33">
-        <f t="shared" si="6"/>
         <v>0.20883875119464151</v>
       </c>
       <c r="R28" s="3">
@@ -2435,7 +2419,7 @@
         <v>1.1833458783244466</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3998507239282904E-3</v>
       </c>
       <c r="T28" s="33">
@@ -2484,7 +2468,7 @@
         <v>20.4243281540071</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36.517439239128528</v>
       </c>
       <c r="M29">
@@ -2498,11 +2482,11 @@
         <v>1.9785179564049708E-3</v>
       </c>
       <c r="P29" s="3">
+        <f t="shared" si="8"/>
+        <v>881.42779344740609</v>
+      </c>
+      <c r="Q29" s="33">
         <f t="shared" si="5"/>
-        <v>881.42779344740609</v>
-      </c>
-      <c r="Q29" s="33">
-        <f t="shared" si="6"/>
         <v>11.418268801861391</v>
       </c>
       <c r="R29" s="3">
@@ -2510,7 +2494,7 @@
         <v>1.2046175644285926</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3833574818227922E-3</v>
       </c>
       <c r="T29" s="33">
@@ -2559,7 +2543,7 @@
         <v>3.5509586081157583</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.3488950155301422</v>
       </c>
       <c r="M30">
@@ -2573,11 +2557,11 @@
         <v>1.9988624233304225E-3</v>
       </c>
       <c r="P30" s="3">
+        <f t="shared" si="8"/>
+        <v>153.24438517506292</v>
+      </c>
+      <c r="Q30" s="33">
         <f t="shared" si="5"/>
-        <v>153.24438517506292</v>
-      </c>
-      <c r="Q30" s="33">
-        <f t="shared" si="6"/>
         <v>2.0172994455014543</v>
       </c>
       <c r="R30" s="3">
@@ -2585,7 +2569,7 @@
         <v>1.2052252621625512</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.409079488185281E-3</v>
       </c>
       <c r="T30" s="33">
@@ -2634,7 +2618,7 @@
         <v>0.62624189399701491</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.1196818882165329</v>
       </c>
       <c r="M31">
@@ -2648,11 +2632,11 @@
         <v>1.9459632108846249E-3</v>
       </c>
       <c r="P31" s="3">
+        <f t="shared" si="8"/>
+        <v>27.025956821097083</v>
+      </c>
+      <c r="Q31" s="33">
         <f t="shared" si="5"/>
-        <v>27.025956821097083</v>
-      </c>
-      <c r="Q31" s="33">
-        <f t="shared" si="6"/>
         <v>0.35207847069512216</v>
       </c>
       <c r="R31" s="3">
@@ -2660,7 +2644,7 @@
         <v>1.185283941367882</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3065189443542268E-3</v>
       </c>
       <c r="T31" s="33">
@@ -2709,7 +2693,7 @@
         <v>1.4695136504904027</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.6273997870683932</v>
       </c>
       <c r="M32">
@@ -2723,11 +2707,11 @@
         <v>1.9988624233304225E-3</v>
       </c>
       <c r="P32" s="3">
+        <f t="shared" si="8"/>
+        <v>63.418006439466467</v>
+      </c>
+      <c r="Q32" s="33">
         <f t="shared" si="5"/>
-        <v>63.418006439466467</v>
-      </c>
-      <c r="Q32" s="33">
-        <f t="shared" si="6"/>
         <v>0.83128651583390978</v>
       </c>
       <c r="R32" s="3">
@@ -2735,7 +2719,7 @@
         <v>1.2052252621625512</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.409079488185281E-3</v>
       </c>
       <c r="T32" s="33">
@@ -2784,7 +2768,7 @@
         <v>0.14377970437634477</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.25706924500980127</v>
       </c>
       <c r="M33">
@@ -2798,11 +2782,11 @@
         <v>2.0416382657432999E-3</v>
       </c>
       <c r="P33" s="3">
+        <f t="shared" si="8"/>
+        <v>6.204925156673915</v>
+      </c>
+      <c r="Q33" s="33">
         <f t="shared" si="5"/>
-        <v>6.204925156673915</v>
-      </c>
-      <c r="Q33" s="33">
-        <f t="shared" si="6"/>
         <v>8.1403304884548666E-2</v>
       </c>
       <c r="R33" s="3">
@@ -2810,7 +2794,7 @@
         <v>1.1687256411984184</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3861149912260651E-3</v>
       </c>
       <c r="T33" s="33">
@@ -2859,7 +2843,7 @@
         <v>6.4338680250656685E-2</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11503359273622536</v>
       </c>
       <c r="M34">
@@ -2873,11 +2857,11 @@
         <v>2.0844166189658169E-3</v>
       </c>
       <c r="P34" s="3">
+        <f t="shared" si="8"/>
+        <v>2.7765858704893791</v>
+      </c>
+      <c r="Q34" s="33">
         <f t="shared" si="5"/>
-        <v>2.7765858704893791</v>
-      </c>
-      <c r="Q34" s="33">
-        <f t="shared" si="6"/>
         <v>3.6452283449927604E-2</v>
       </c>
       <c r="R34" s="3">
@@ -2885,7 +2869,7 @@
         <v>1.1638315883698565</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4259099044755127E-3</v>
       </c>
       <c r="T34" s="33">
@@ -2934,7 +2918,7 @@
         <v>1.3568651580282334</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.4259912292030692</v>
       </c>
       <c r="M35">
@@ -2948,11 +2932,11 @@
         <v>2.0280213654239017E-3</v>
       </c>
       <c r="P35" s="3">
+        <f t="shared" si="8"/>
+        <v>58.556572986311409</v>
+      </c>
+      <c r="Q35" s="33">
         <f t="shared" si="5"/>
-        <v>58.556572986311409</v>
-      </c>
-      <c r="Q35" s="33">
-        <f t="shared" si="6"/>
         <v>0.7682251293807737</v>
       </c>
       <c r="R35" s="3">
@@ -2960,7 +2944,7 @@
         <v>1.1833458783244466</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3998507239282904E-3</v>
       </c>
       <c r="T35" s="33">
@@ -3009,7 +2993,7 @@
         <v>7.6492992694421502E-2</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13676475386974282</v>
       </c>
       <c r="M36">
@@ -3023,11 +3007,11 @@
         <v>2.0844166189658169E-3</v>
       </c>
       <c r="P36" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3011146930482811</v>
+      </c>
+      <c r="Q36" s="33">
         <f t="shared" si="5"/>
-        <v>3.3011146930482811</v>
-      </c>
-      <c r="Q36" s="33">
-        <f t="shared" si="6"/>
         <v>4.3190125018384241E-2</v>
       </c>
       <c r="R36" s="3">
@@ -3035,7 +3019,7 @@
         <v>1.1638315883698565</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4259099044755127E-3</v>
       </c>
       <c r="T36" s="33">
@@ -3084,7 +3068,7 @@
         <v>3.6731587224152316</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.5673812842238846</v>
       </c>
       <c r="M37">
@@ -3098,11 +3082,11 @@
         <v>1.9809541385858932E-3</v>
       </c>
       <c r="P37" s="3">
+        <f t="shared" si="8"/>
+        <v>158.51802630997943</v>
+      </c>
+      <c r="Q37" s="33">
         <f t="shared" si="5"/>
-        <v>158.51802630997943</v>
-      </c>
-      <c r="Q37" s="33">
-        <f t="shared" si="6"/>
         <v>2.065007328872059</v>
       </c>
       <c r="R37" s="3">
@@ -3110,7 +3094,7 @@
         <v>1.1797604805725546</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3370514065302844E-3</v>
       </c>
       <c r="T37" s="33">
@@ -3159,7 +3143,7 @@
         <v>0.13239188010470926</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.23670851746128035</v>
       </c>
       <c r="M38">
@@ -3173,11 +3157,11 @@
         <v>1.9947791269277924E-3</v>
       </c>
       <c r="P38" s="3">
+        <f t="shared" si="8"/>
+        <v>5.7134747283304383</v>
+      </c>
+      <c r="Q38" s="33">
         <f t="shared" si="5"/>
-        <v>5.7134747283304383</v>
-      </c>
-      <c r="Q38" s="33">
-        <f t="shared" si="6"/>
         <v>7.4755931013943344E-2</v>
       </c>
       <c r="R38" s="3">
@@ -3185,7 +3169,7 @@
         <v>1.1686508824837096</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3312003870442485E-3</v>
       </c>
       <c r="T38" s="33">
@@ -3234,7 +3218,7 @@
         <v>0.11591238440392902</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.2072441953838535</v>
       </c>
       <c r="M39">
@@ -3248,11 +3232,11 @@
         <v>1.9947791269277924E-3</v>
       </c>
       <c r="P39" s="3">
+        <f t="shared" si="8"/>
+        <v>5.0022892526987741</v>
+      </c>
+      <c r="Q39" s="33">
         <f t="shared" si="5"/>
-        <v>5.0022892526987741</v>
-      </c>
-      <c r="Q39" s="33">
-        <f t="shared" si="6"/>
         <v>6.5174892066650864E-2</v>
       </c>
       <c r="R39" s="3">
@@ -3260,7 +3244,7 @@
         <v>1.1686508824837096</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3312003870442485E-3</v>
       </c>
       <c r="T39" s="33">
@@ -3309,7 +3293,7 @@
         <v>7.2003561971949806E-2</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12873792858619132</v>
       </c>
       <c r="M40">
@@ -3323,11 +3307,11 @@
         <v>2.1041761578601799E-3</v>
       </c>
       <c r="P40" s="3">
+        <f t="shared" si="8"/>
+        <v>3.1073698126436415</v>
+      </c>
+      <c r="Q40" s="33">
         <f t="shared" si="5"/>
-        <v>3.1073698126436415</v>
-      </c>
-      <c r="Q40" s="33">
-        <f t="shared" si="6"/>
         <v>4.0746937597296431E-2</v>
       </c>
       <c r="R40" s="3">
@@ -3335,7 +3319,7 @@
         <v>1.1649880830322454</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4513401485076864E-3</v>
       </c>
       <c r="T40" s="33">
@@ -3384,7 +3368,7 @@
         <v>0.9046539823658315</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6174655334745274</v>
       </c>
       <c r="M41">
@@ -3398,11 +3382,11 @@
         <v>1.9866139527056686E-3</v>
       </c>
       <c r="P41" s="3">
+        <f t="shared" si="8"/>
+        <v>39.041047396884984</v>
+      </c>
+      <c r="Q41" s="33">
         <f t="shared" si="5"/>
-        <v>39.041047396884984</v>
-      </c>
-      <c r="Q41" s="33">
-        <f t="shared" si="6"/>
         <v>0.51267396226519324</v>
       </c>
       <c r="R41" s="3">
@@ -3410,7 +3394,7 @@
         <v>1.2043577967734431</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.39259400311998E-3</v>
       </c>
       <c r="T41" s="33">
@@ -3459,7 +3443,7 @@
         <v>0.9046539823658315</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6174655334745274</v>
       </c>
       <c r="M42">
@@ -3473,11 +3457,11 @@
         <v>2.0269419612688765E-3</v>
       </c>
       <c r="P42" s="3">
+        <f t="shared" si="8"/>
+        <v>39.041047396884984</v>
+      </c>
+      <c r="Q42" s="33">
         <f t="shared" si="5"/>
-        <v>39.041047396884984</v>
-      </c>
-      <c r="Q42" s="33">
-        <f t="shared" si="6"/>
         <v>0.51424840995893151</v>
       </c>
       <c r="R42" s="3">
@@ -3485,7 +3469,7 @@
         <v>1.1850011419874937</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4019285388459889E-3</v>
       </c>
       <c r="T42" s="33">
@@ -3534,7 +3518,7 @@
         <v>13.996541496636786</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25.024953075927613</v>
       </c>
       <c r="M43">
@@ -3548,11 +3532,11 @@
         <v>1.9866139527056686E-3</v>
       </c>
       <c r="P43" s="3">
+        <f t="shared" si="8"/>
+        <v>604.03165255916656</v>
+      </c>
+      <c r="Q43" s="33">
         <f t="shared" si="5"/>
-        <v>604.03165255916656</v>
-      </c>
-      <c r="Q43" s="33">
-        <f t="shared" si="6"/>
         <v>7.8721123718238486</v>
       </c>
       <c r="R43" s="3">
@@ -3560,7 +3544,7 @@
         <v>1.2043577967734431</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.39259400311998E-3</v>
       </c>
       <c r="T43" s="33">
@@ -3609,7 +3593,7 @@
         <v>19.904345947213351</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35.587743118950726</v>
       </c>
       <c r="M44">
@@ -3623,11 +3607,11 @@
         <v>1.9506684189233771E-3</v>
       </c>
       <c r="P44" s="3">
+        <f t="shared" si="8"/>
+        <v>858.98755621119597</v>
+      </c>
+      <c r="Q44" s="33">
         <f t="shared" si="5"/>
-        <v>858.98755621119597</v>
-      </c>
-      <c r="Q44" s="33">
-        <f t="shared" si="6"/>
         <v>11.167352152492537</v>
       </c>
       <c r="R44" s="3">
@@ -3635,7 +3619,7 @@
         <v>1.2039917433698564</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3485886704360782E-3</v>
       </c>
       <c r="T44" s="33">
@@ -3684,7 +3668,7 @@
         <v>1.1201971947261515</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.0028435053433506</v>
       </c>
       <c r="M45">
@@ -3698,11 +3682,11 @@
         <v>1.9886752759355397E-3</v>
       </c>
       <c r="P45" s="3">
+        <f t="shared" si="8"/>
+        <v>48.342982649332875</v>
+      </c>
+      <c r="Q45" s="33">
         <f t="shared" si="5"/>
-        <v>48.342982649332875</v>
-      </c>
-      <c r="Q45" s="33">
-        <f t="shared" si="6"/>
         <v>0.63194467556445777</v>
       </c>
       <c r="R45" s="3">
@@ -3710,7 +3694,7 @@
         <v>1.1946291582757465</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3757294709746616E-3</v>
       </c>
       <c r="T45" s="33">
@@ -3759,7 +3743,7 @@
         <v>0.13458184631079301</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.24062404198984205</v>
       </c>
       <c r="M46">
@@ -3773,11 +3757,11 @@
         <v>1.9947791269277924E-3</v>
       </c>
       <c r="P46" s="3">
+        <f t="shared" si="8"/>
+        <v>5.8079844260887992</v>
+      </c>
+      <c r="Q46" s="33">
         <f t="shared" si="5"/>
-        <v>5.8079844260887992</v>
-      </c>
-      <c r="Q46" s="33">
-        <f t="shared" si="6"/>
         <v>7.6269528358017508E-2</v>
       </c>
       <c r="R46" s="3">
@@ -3785,7 +3769,7 @@
         <v>1.1686508824837096</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3312003870442485E-3</v>
       </c>
       <c r="T46" s="33">
@@ -3834,7 +3818,7 @@
         <v>2.0713163639222176</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.7033859275171497</v>
       </c>
       <c r="M47">
@@ -3848,11 +3832,11 @@
         <v>2.0062850491605233E-3</v>
       </c>
       <c r="P47" s="3">
+        <f t="shared" si="8"/>
+        <v>89.389271383463992</v>
+      </c>
+      <c r="Q47" s="33">
         <f t="shared" si="5"/>
-        <v>89.389271383463992</v>
-      </c>
-      <c r="Q47" s="33">
-        <f t="shared" si="6"/>
         <v>1.1789946490461454</v>
       </c>
       <c r="R47" s="3">
@@ -3860,7 +3844,7 @@
         <v>1.1865756058275727</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3806088976704495E-3</v>
       </c>
       <c r="T47" s="33">
@@ -3909,7 +3893,7 @@
         <v>3.6595640860436194</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.5430749127273522</v>
       </c>
       <c r="M48">
@@ -3923,11 +3907,11 @@
         <v>1.9809541385858932E-3</v>
       </c>
       <c r="P48" s="3">
+        <f t="shared" si="8"/>
+        <v>157.93133918620254</v>
+      </c>
+      <c r="Q48" s="33">
         <f t="shared" si="5"/>
-        <v>157.93133918620254</v>
-      </c>
-      <c r="Q48" s="33">
-        <f t="shared" si="6"/>
         <v>2.0604709025607542</v>
       </c>
       <c r="R48" s="3">
@@ -3935,7 +3919,7 @@
         <v>1.1797604805725546</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3370514065302844E-3</v>
       </c>
       <c r="T48" s="33">
@@ -3984,7 +3968,7 @@
         <v>2.2750337587696858</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.0676200669317408</v>
       </c>
       <c r="M49">
@@ -3998,11 +3982,11 @@
         <v>2.0062850491605233E-3</v>
       </c>
       <c r="P49" s="3">
+        <f t="shared" si="8"/>
+        <v>98.180854268016759</v>
+      </c>
+      <c r="Q49" s="33">
         <f t="shared" si="5"/>
-        <v>98.180854268016759</v>
-      </c>
-      <c r="Q49" s="33">
-        <f t="shared" si="6"/>
         <v>1.2908170913256727</v>
       </c>
       <c r="R49" s="3">
@@ -4010,7 +3994,7 @@
         <v>1.1865756058275727</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3806088976704495E-3</v>
       </c>
       <c r="T49" s="33">
@@ -4059,7 +4043,7 @@
         <v>1.5933815082852785</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8488678782877339</v>
       </c>
       <c r="M50">
@@ -4073,7 +4057,7 @@
         <v>1.999880935237024E-3</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>68.763620344214374</v>
       </c>
       <c r="Q50" s="33">
@@ -4085,7 +4069,7 @@
         <v>1.2187935913129297</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4374420672557931E-3</v>
       </c>
       <c r="T50" s="33">
@@ -4134,7 +4118,7 @@
         <v>1.5479481324559869</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.767635804029803</v>
       </c>
       <c r="M51">
@@ -4148,7 +4132,7 @@
         <v>1.999880935237024E-3</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>66.80290761456591</v>
       </c>
       <c r="Q51" s="33">
@@ -4160,7 +4144,7 @@
         <v>1.2187935913129297</v>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4374420672557931E-3</v>
       </c>
       <c r="T51" s="33">
@@ -4209,7 +4193,7 @@
         <v>1.8675989690747501</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3391517881025603</v>
       </c>
       <c r="M52">
@@ -4223,7 +4207,7 @@
         <v>2.0459188357933003E-3</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>80.597688498911268</v>
       </c>
       <c r="Q52" s="33">
@@ -4235,7 +4219,7 @@
         <v>1.1782717249559043</v>
       </c>
       <c r="S52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4106483157699476E-3</v>
       </c>
       <c r="T52" s="33">
@@ -4284,7 +4268,7 @@
         <v>1.5448653338735769</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7621239502703663</v>
       </c>
       <c r="M53">
@@ -4298,7 +4282,7 @@
         <v>2.0459188357933003E-3</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>66.669867040029146</v>
       </c>
       <c r="Q53" s="33">
@@ -4310,7 +4294,7 @@
         <v>1.1782717249559043</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4106483157699476E-3</v>
       </c>
       <c r="T53" s="33">
@@ -4359,7 +4343,7 @@
         <v>1.5673546022206677</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8023333752367501</v>
       </c>
       <c r="M54">
@@ -4373,7 +4357,7 @@
         <v>2.0459188357933003E-3</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>67.640408936240007</v>
       </c>
       <c r="Q54" s="33">
@@ -4385,7 +4369,7 @@
         <v>1.1782717249559043</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4106483157699476E-3</v>
       </c>
       <c r="T54" s="33">
@@ -4434,7 +4418,7 @@
         <v>1.6996117151742334</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.038800937342427</v>
       </c>
       <c r="M55">
@@ -4448,7 +4432,7 @@
         <v>2.0459188357933003E-3</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>73.34806768316993</v>
       </c>
       <c r="Q55" s="33">
@@ -4460,7 +4444,7 @@
         <v>1.1782717249559043</v>
       </c>
       <c r="S55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4106483157699476E-3</v>
       </c>
       <c r="T55" s="33">
@@ -4509,7 +4493,7 @@
         <v>0.68309678588572775</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2213349288618849</v>
       </c>
       <c r="M56">
@@ -4523,7 +4507,7 @@
         <v>1.9904883909304654E-3</v>
       </c>
       <c r="P56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.479573974439141</v>
       </c>
       <c r="Q56" s="33">
@@ -4535,7 +4519,7 @@
         <v>1.1886947133341537</v>
       </c>
       <c r="S56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3660830272520502E-3</v>
       </c>
       <c r="T56" s="33">
@@ -4584,7 +4568,7 @@
         <v>10.801801949307915</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19.312955774242347</v>
       </c>
       <c r="M57">
@@ -4598,7 +4582,7 @@
         <v>1.9866139527056686E-3</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>466.1601784715948</v>
       </c>
       <c r="Q57" s="33">
@@ -4610,7 +4594,7 @@
         <v>1.2043577967734431</v>
       </c>
       <c r="S57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.39259400311998E-3</v>
       </c>
       <c r="T57" s="33">
@@ -4659,7 +4643,7 @@
         <v>0.8967701040239302</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6033696451717057</v>
       </c>
       <c r="M58">
@@ -4673,7 +4657,7 @@
         <v>1.9904883909304654E-3</v>
       </c>
       <c r="P58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38.700812484954888</v>
       </c>
       <c r="Q58" s="33">
@@ -4685,7 +4669,7 @@
         <v>1.1886947133341537</v>
       </c>
       <c r="S58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3660830272520502E-3</v>
       </c>
       <c r="T58" s="33">
@@ -4734,7 +4718,7 @@
         <v>15.707545247556128</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>28.084122270673426</v>
       </c>
       <c r="M59">
@@ -4748,7 +4732,7 @@
         <v>1.9506684189233771E-3</v>
       </c>
       <c r="P59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>677.87135242009867</v>
       </c>
       <c r="Q59" s="33">
@@ -4760,7 +4744,7 @@
         <v>1.2039917433698564</v>
       </c>
       <c r="S59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3485886704360782E-3</v>
       </c>
       <c r="T59" s="33">
@@ -4809,7 +4793,7 @@
         <v>0.5445224627223052</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.97357258446228045</v>
       </c>
       <c r="M60">
@@ -4823,7 +4807,7 @@
         <v>1.9904883909304654E-3</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23.4992910993601</v>
       </c>
       <c r="Q60" s="33">
@@ -4835,7 +4819,7 @@
         <v>1.1886947133341537</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3660830272520502E-3</v>
       </c>
       <c r="T60" s="33">
@@ -4884,7 +4868,7 @@
         <v>0.98521104696192774</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7614965972866974</v>
       </c>
       <c r="M61">
@@ -4898,7 +4882,7 @@
         <v>1.9904883909304654E-3</v>
       </c>
       <c r="P61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>42.517550279042531</v>
       </c>
       <c r="Q61" s="33">
@@ -4910,7 +4894,7 @@
         <v>1.1886947133341537</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3660830272520502E-3</v>
       </c>
       <c r="T61" s="33">
@@ -4959,7 +4943,7 @@
         <v>4.3708314179918357</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.8147770407652919</v>
       </c>
       <c r="M62">
@@ -4973,7 +4957,7 @@
         <v>1.9988624233304225E-3</v>
       </c>
       <c r="P62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>188.62663502276797</v>
       </c>
       <c r="Q62" s="33">
@@ -4985,7 +4969,7 @@
         <v>1.204150511246296</v>
       </c>
       <c r="S62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4069312089643386E-3</v>
       </c>
       <c r="T62" s="33">
@@ -5034,7 +5018,7 @@
         <v>7.4741019729554492E-2</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.13363233424689344</v>
       </c>
       <c r="M63">
@@ -5048,7 +5032,7 @@
         <v>2.0844166189658169E-3</v>
       </c>
       <c r="P63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2255069348415919</v>
       </c>
       <c r="Q63" s="33">
@@ -5060,7 +5044,7 @@
         <v>1.1638315883698565</v>
       </c>
       <c r="S63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4259099044755127E-3</v>
       </c>
       <c r="T63" s="33">
@@ -5109,7 +5093,7 @@
         <v>3.5975038129419841</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.4321149714718029</v>
       </c>
       <c r="M64">
@@ -5123,7 +5107,7 @@
         <v>1.9809541385858932E-3</v>
       </c>
       <c r="P64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>155.2530797512656</v>
       </c>
       <c r="Q64" s="33">
@@ -5135,7 +5119,7 @@
         <v>1.1797604805725546</v>
       </c>
       <c r="S64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3370514065302844E-3</v>
       </c>
       <c r="T64" s="33">
@@ -5184,7 +5168,7 @@
         <v>1.2238499798494848</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.1881682932221214</v>
       </c>
       <c r="M65">
@@ -5198,7 +5182,7 @@
         <v>2.0931031059290566E-3</v>
       </c>
       <c r="P65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>52.816199344003593</v>
       </c>
       <c r="Q65" s="33">
@@ -5210,7 +5194,7 @@
         <v>1.178016110562683</v>
       </c>
       <c r="S65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4657091798532186E-3</v>
       </c>
       <c r="T65" s="33">
@@ -5259,7 +5243,7 @@
         <v>7.2660551833774942E-2</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12991258594475985</v>
       </c>
       <c r="M66">
@@ -5273,7 +5257,7 @@
         <v>2.1041761578601799E-3</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1357227219711499</v>
       </c>
       <c r="Q66" s="33">
@@ -5285,7 +5269,7 @@
         <v>1.1649880830322454</v>
       </c>
       <c r="S66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4513401485076864E-3</v>
       </c>
       <c r="T66" s="33">
@@ -5334,7 +5318,7 @@
         <v>0.7296419907119539</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3045548848035464</v>
       </c>
       <c r="M67">
@@ -5348,7 +5332,7 @@
         <v>2.0365175140760038E-3</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31.488268550641838</v>
       </c>
       <c r="Q67" s="33">
@@ -5360,7 +5344,7 @@
         <v>1.1845999746421498</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4124585955327283E-3</v>
       </c>
       <c r="T67" s="33">
@@ -5409,7 +5393,7 @@
         <v>7.1675067041037252E-2</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12815059990690708</v>
       </c>
       <c r="M68">
@@ -5423,7 +5407,7 @@
         <v>2.1041761578601799E-3</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0931933579798874</v>
       </c>
       <c r="Q68" s="33">
@@ -5435,7 +5419,7 @@
         <v>1.1649880830322454</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4513401485076864E-3</v>
       </c>
       <c r="T68" s="33">
@@ -5484,7 +5468,7 @@
         <v>1.5589148093802989</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7872435460920628</v>
       </c>
       <c r="M69">
@@ -5498,7 +5482,7 @@
         <v>1.9886752759355397E-3</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>67.2761831010328</v>
       </c>
       <c r="Q69" s="33">
@@ -5510,7 +5494,7 @@
         <v>1.1946291582757465</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3757294709746616E-3</v>
       </c>
       <c r="T69" s="33">
@@ -5559,7 +5543,7 @@
         <v>1.7162386124465769</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0685288043400449</v>
       </c>
       <c r="M70">
@@ -5573,7 +5557,7 @@
         <v>1.9988624233304225E-3</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>74.0656143884584</v>
       </c>
       <c r="Q70" s="33">
@@ -5585,7 +5569,7 @@
         <v>1.2052252621625512</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.409079488185281E-3</v>
       </c>
       <c r="T70" s="33">
@@ -5634,7 +5618,7 @@
         <v>7.8988669759927603</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14.122687056278204</v>
       </c>
       <c r="M71">
@@ -5648,7 +5632,7 @@
         <v>1.9866139527056686E-3</v>
       </c>
       <c r="P71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>340.88175811148716</v>
       </c>
       <c r="Q71" s="33">
@@ -5660,7 +5644,7 @@
         <v>1.2043577967734431</v>
       </c>
       <c r="S71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.39259400311998E-3</v>
       </c>
       <c r="T71" s="33">
@@ -5709,7 +5693,7 @@
         <v>0.73742479369049763</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3184700565896657</v>
       </c>
       <c r="M72">
@@ -5723,7 +5707,7 @@
         <v>2.0931031059290566E-3</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31.824141476521547</v>
       </c>
       <c r="Q72" s="33">
@@ -5735,7 +5719,7 @@
         <v>1.178016110562683</v>
       </c>
       <c r="S72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4657091798532186E-3</v>
       </c>
       <c r="T72" s="33">
@@ -5784,7 +5768,7 @@
         <v>6.866386350767209E-2</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12276675368013473</v>
       </c>
       <c r="M73">
@@ -5798,7 +5782,7 @@
         <v>2.1178799437077682E-3</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.9632425235621414</v>
       </c>
       <c r="Q73" s="33">
@@ -5810,7 +5794,7 @@
         <v>1.1642184080830844</v>
       </c>
       <c r="S73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4656748165745503E-3</v>
       </c>
       <c r="T73" s="33">
@@ -5859,7 +5843,7 @@
         <v>1.1141326729246888</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.9920005143411796</v>
       </c>
       <c r="M74">
@@ -5873,7 +5857,7 @@
         <v>2.0931031059290566E-3</v>
       </c>
       <c r="P74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>48.081263486309716</v>
       </c>
       <c r="Q74" s="33">
@@ -5885,7 +5869,7 @@
         <v>1.178016110562683</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4657091798532186E-3</v>
       </c>
       <c r="T74" s="33">
@@ -5934,7 +5918,7 @@
         <v>1.0137648371104813</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.812549013255252</v>
       </c>
       <c r="M75">
@@ -5948,7 +5932,7 @@
         <v>2.0365175140760038E-3</v>
       </c>
       <c r="P75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>43.749811338276544</v>
       </c>
       <c r="Q75" s="33">
@@ -5960,7 +5944,7 @@
         <v>1.1845999746421498</v>
       </c>
       <c r="S75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4124585955327283E-3</v>
       </c>
       <c r="T75" s="33">
@@ -6009,7 +5993,7 @@
         <v>0.79372377108074299</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4191291563931518</v>
       </c>
       <c r="M76">
@@ -6023,7 +6007,7 @@
         <v>2.0931031059290566E-3</v>
       </c>
       <c r="P76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34.25376770658648</v>
       </c>
       <c r="Q76" s="33">
@@ -6035,7 +6019,7 @@
         <v>1.178016110562683</v>
       </c>
       <c r="S76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.4657091798532186E-3</v>
       </c>
       <c r="T76" s="33">
@@ -6084,7 +6068,7 @@
         <v>12.257691483112396</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>21.91599648083017</v>
       </c>
       <c r="M77">
@@ -6098,7 +6082,7 @@
         <v>1.9906989863648604E-3</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>528.99022554135308</v>
       </c>
       <c r="Q77" s="33">
@@ -6110,7 +6094,7 @@
         <v>1.2045671589315543</v>
       </c>
       <c r="S77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.397930622293445E-3</v>
       </c>
       <c r="T77" s="33">
@@ -6159,7 +6143,7 @@
         <v>0.36211933512289479</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.64744704050740332</v>
       </c>
       <c r="M78">
@@ -6173,7 +6157,7 @@
         <v>1.9459632108846249E-3</v>
       </c>
       <c r="P78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15.62754202318248</v>
       </c>
       <c r="Q78" s="33">
@@ -6185,7 +6169,7 @@
         <v>1.185283941367882</v>
       </c>
       <c r="S78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3065189443542268E-3</v>
       </c>
       <c r="T78" s="33">
@@ -6234,7 +6218,7 @@
         <v>0.32439716722310219</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.58000213050292793</v>
       </c>
       <c r="M79">
@@ -6248,7 +6232,7 @@
         <v>2.0632391928286273E-3</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13.999612479294715</v>
       </c>
       <c r="Q79" s="33">
@@ -6260,7 +6244,7 @@
         <v>1.1846180979669279</v>
       </c>
       <c r="S79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.444150488259468E-3</v>
       </c>
       <c r="T79" s="33">
@@ -6309,7 +6293,7 @@
         <v>1.8740677923296436</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3507176451715424</v>
       </c>
       <c r="M80">
@@ -6323,7 +6307,7 @@
         <v>2.0062850491605233E-3</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>80.876855606135962</v>
       </c>
       <c r="Q80" s="33">
@@ -6335,7 +6319,7 @@
         <v>1.1865756058275727</v>
       </c>
       <c r="S80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3806088976704495E-3</v>
       </c>
       <c r="T80" s="33">
@@ -6384,7 +6368,7 @@
         <v>6.2092406644235734</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11.101739404815044</v>
       </c>
       <c r="M81">
@@ -6398,7 +6382,7 @@
         <v>2.0021567826948353E-3</v>
       </c>
       <c r="P81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>267.96461830021155</v>
       </c>
       <c r="Q81" s="33">
@@ -6410,7 +6394,7 @@
         <v>1.1824223438993069</v>
       </c>
       <c r="S81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3673949158479223E-3</v>
       </c>
       <c r="T81" s="33">
@@ -14682,171 +14666,66 @@
       </c>
       <c r="AA192" s="31"/>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>179</v>
-      </c>
-      <c r="B193" t="s">
-        <v>97</v>
-      </c>
+    <row r="193" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D193" s="1"/>
-      <c r="E193" s="52">
-        <v>44835</v>
-      </c>
-      <c r="F193">
-        <v>71</v>
-      </c>
-      <c r="G193">
-        <f t="shared" si="24"/>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H193">
-        <v>15</v>
-      </c>
-      <c r="I193" s="53">
-        <f t="shared" si="25"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
+      <c r="E193" s="49"/>
+      <c r="I193" s="4"/>
       <c r="Z193" s="31"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194" t="s">
-        <v>98</v>
-      </c>
+    <row r="194" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D194" s="1"/>
-      <c r="E194" s="52">
-        <v>44835</v>
-      </c>
-      <c r="F194">
-        <v>71</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="24"/>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H194">
-        <v>15</v>
-      </c>
-      <c r="I194" s="53">
-        <f t="shared" si="25"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
+      <c r="E194" s="49"/>
+      <c r="I194" s="4"/>
       <c r="Z194" s="31"/>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>212</v>
-      </c>
-      <c r="B195" t="s">
-        <v>99</v>
-      </c>
+    <row r="195" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D195" s="1"/>
-      <c r="E195" s="52">
-        <v>44835</v>
-      </c>
-      <c r="F195">
-        <v>71</v>
-      </c>
-      <c r="G195">
-        <f t="shared" si="24"/>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H195">
-        <v>15</v>
-      </c>
-      <c r="I195" s="53">
-        <f t="shared" si="25"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
+      <c r="E195" s="49"/>
+      <c r="I195" s="4"/>
       <c r="Z195" s="31"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>214</v>
-      </c>
-      <c r="B196" t="s">
-        <v>100</v>
-      </c>
+    <row r="196" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D196" s="1"/>
-      <c r="E196" s="52">
-        <v>44835</v>
-      </c>
-      <c r="F196">
-        <v>71</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="24"/>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H196">
-        <v>15</v>
-      </c>
-      <c r="I196" s="53">
-        <f t="shared" si="25"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
+      <c r="E196" s="49"/>
+      <c r="I196" s="4"/>
       <c r="Z196" s="31"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>239</v>
-      </c>
-      <c r="B197" t="s">
-        <v>101</v>
-      </c>
+    <row r="197" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D197" s="1"/>
-      <c r="E197" s="52">
-        <v>44835</v>
-      </c>
-      <c r="F197">
-        <v>71</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="24"/>
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H197">
-        <v>15</v>
-      </c>
-      <c r="I197" s="53">
-        <f t="shared" si="25"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E197" s="49"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">
